--- a/src/main/resources/report/BSreport.xlsx
+++ b/src/main/resources/report/BSreport.xlsx
@@ -592,7 +592,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>

--- a/src/main/resources/report/BSreport.xlsx
+++ b/src/main/resources/report/BSreport.xlsx
@@ -592,10 +592,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>

--- a/src/main/resources/report/BSreport.xlsx
+++ b/src/main/resources/report/BSreport.xlsx
@@ -592,7 +592,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>

--- a/src/main/resources/report/BSreport.xlsx
+++ b/src/main/resources/report/BSreport.xlsx
@@ -592,7 +592,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="n">
         <v>0.0</v>

--- a/src/main/resources/report/BSreport.xlsx
+++ b/src/main/resources/report/BSreport.xlsx
@@ -592,10 +592,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>

--- a/src/main/resources/report/BSreport.xlsx
+++ b/src/main/resources/report/BSreport.xlsx
@@ -592,10 +592,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
